--- a/Solution/Taakstructurering.xlsx
+++ b/Solution/Taakstructurering.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\ThemaDevices\Modellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Dropbox\School\Jaar 2\Thema Devices\github\Thema-Opdracht-Devices-HU\Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="19560" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="19560" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$I$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>OLED</t>
   </si>
@@ -47,9 +48,6 @@
     <t>HP_Entity</t>
   </si>
   <si>
-    <t>Timer_LED</t>
-  </si>
-  <si>
     <t>Run_Game_Controller</t>
   </si>
   <si>
@@ -128,15 +126,9 @@
     <t>Asynchoon</t>
   </si>
   <si>
-    <t>Timer_LED_task</t>
-  </si>
-  <si>
     <t>0,2 ms</t>
   </si>
   <si>
-    <t>Key_task</t>
-  </si>
-  <si>
     <t>10ms</t>
   </si>
   <si>
@@ -155,20 +147,53 @@
     <t>Geen Cohesie</t>
   </si>
   <si>
-    <t>event_task</t>
-  </si>
-  <si>
     <t>Taaknummer</t>
   </si>
   <si>
     <t>Register_Entity</t>
+  </si>
+  <si>
+    <t>Samengevoegde objecten</t>
+  </si>
+  <si>
+    <t>IR_Receiver, IR_Receiver_Controller</t>
+  </si>
+  <si>
+    <t>IR_LED, IR_Send_Controller</t>
+  </si>
+  <si>
+    <t>Indicator_LED</t>
+  </si>
+  <si>
+    <t>Keypad_Listener</t>
+  </si>
+  <si>
+    <t>Run_game_task</t>
+  </si>
+  <si>
+    <t>KeyPad_task</t>
+  </si>
+  <si>
+    <t>Keypad, Keypad_Listener</t>
+  </si>
+  <si>
+    <t>Run_game_controller, Indicator_LED, Init_Game_controller, Register_GameParameter_Controller, OLED</t>
+  </si>
+  <si>
+    <t>500 us</t>
+  </si>
+  <si>
+    <t>100 us</t>
+  </si>
+  <si>
+    <t>800 us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,8 +209,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +254,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -226,19 +269,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent4" xfId="1" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M17"/>
+  <dimension ref="B1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,368 +615,397 @@
     <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="O2" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="O4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
         <v>35</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I15" t="s">
         <v>36</v>
       </c>
-      <c r="L5" t="s">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
         <v>37</v>
       </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="6">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="J17" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="I1:M10" xr:uid="{00000000-0009-0000-0000-000000000000}">
